--- a/data/trans_bre/IP16A09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A09-Edad-trans_bre.xlsx
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>-47,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>47,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-82,85%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,59</t>
+          <t>-7,46; 3,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -1,34</t>
+          <t>-3,18; 7,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,19; -0,42</t>
+          <t>0,0; 5,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-47,26%</t>
+          <t>52,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>47,71%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-82,85%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 3,35</t>
+          <t>-2,33; 6,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 7,9</t>
+          <t>-11,06; -1,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,42</t>
+          <t>-11,19; -0,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">

--- a/data/trans_bre/IP16A09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A09-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,27 +604,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>181,57%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,75%</t>
+          <t>-17,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -642,27 +642,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 12,57</t>
+          <t>-7,66; 9,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 3,31</t>
+          <t>-8,41; 4,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,88</t>
+          <t>0,0; 9,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-72,67; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,27 +684,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-47,26%</t>
+          <t>321,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,71%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 3,35</t>
+          <t>-1,05; 11,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 7,9</t>
+          <t>-2,77; 6,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,42</t>
+          <t>0,0; 6,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>-13,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-82,85%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,59</t>
+          <t>-8,57; 4,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,19; -0,42</t>
+          <t>-14,8; -1,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>59,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-35,78%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,87%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,67</t>
+          <t>-3,27; 10,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,55</t>
+          <t>-15,97; -1,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,67</t>
+          <t>0,0; 7,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,38; 504,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,39; 138,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-88,19; 351,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>82,41%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-35,78%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-25,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 5,41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 1,46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 1,44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-46,04; 598,34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-83,76; 123,73</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-92,18; 324,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/IP16A09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A09-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 9,35</t>
+          <t>-8,93; 8,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 4,99</t>
+          <t>-7,74; 5,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,98</t>
+          <t>0,0; 12,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 11,06</t>
+          <t>-0,09; 10,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,37</t>
+          <t>-3,06; 5,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,74</t>
+          <t>0,0; 7,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 4,77</t>
+          <t>-9,05; 4,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,8; -1,63</t>
+          <t>-15,0; -1,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 10,29</t>
+          <t>-3,31; 10,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,97; -1,85</t>
+          <t>-13,63; -1,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,2</t>
+          <t>0,0; 7,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,41</t>
+          <t>-1,55; 5,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,46</t>
+          <t>-4,08; 1,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,44</t>
+          <t>-2,98; 1,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 598,34</t>
+          <t>-52,29; 589,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-83,76; 123,73</t>
+          <t>-88,03; 97,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-92,18; 324,28</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A09-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 8,45</t>
+          <t>-7,7; 8,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 5,1</t>
+          <t>-7,7; 4,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,54</t>
+          <t>0,0; 10,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 10,98</t>
+          <t>-0,1; 10,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 5,89</t>
+          <t>-3,3; 5,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,84</t>
+          <t>0,0; 7,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 4,74</t>
+          <t>-10,85; 4,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,0; -1,65</t>
+          <t>-15,22; -1,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 10,14</t>
+          <t>-3,25; 10,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,63; -1,78</t>
+          <t>-15,89; -1,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,48</t>
+          <t>0,0; 8,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 5,28</t>
+          <t>-0,97; 5,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,29</t>
+          <t>-3,57; 1,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,57</t>
+          <t>-2,69; 1,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-52,29; 589,19</t>
+          <t>-42,38; 504,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-88,03; 97,85</t>
+          <t>-83,39; 138,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,19; 351,06</t>
         </is>
       </c>
     </row>
